--- a/data/sample-data.xlsx
+++ b/data/sample-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\roqore\Artisan Coffee Co\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\roqore\artisan-coffee-co\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB9677-C75F-47EE-A07F-6038F371486A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513970C-5253-47A5-87A7-F757C8F0566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{432A8DC7-3C39-436D-BC34-D70F3C1732F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{432A8DC7-3C39-436D-BC34-D70F3C1732F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="530">
   <si>
     <t>customer_id</t>
   </si>
@@ -3306,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B82119-240C-431F-97AB-32BBD90BB9CF}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4758,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAA69F5-94F9-47FF-A74B-63587A3E7F03}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4972,7 +4972,7 @@
         <v>245</v>
       </c>
       <c r="H7">
-        <v>45465</v>
+        <v>45462</v>
       </c>
       <c r="I7" t="s">
         <v>256</v>
@@ -5000,8 +5000,8 @@
       <c r="G8" t="s">
         <v>258</v>
       </c>
-      <c r="H8" t="s">
-        <v>214</v>
+      <c r="H8">
+        <v>45465</v>
       </c>
       <c r="I8" t="s">
         <v>259</v>

--- a/data/sample-data.xlsx
+++ b/data/sample-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\roqore\artisan-coffee-co\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513970C-5253-47A5-87A7-F757C8F0566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E6ECA4-2693-41CE-B6AB-4E99ED9C8302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{432A8DC7-3C39-436D-BC34-D70F3C1732F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{432A8DC7-3C39-436D-BC34-D70F3C1732F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="553">
   <si>
     <t>customer_id</t>
   </si>
@@ -1820,6 +1820,75 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>O009</t>
+  </si>
+  <si>
+    <t>preparing</t>
+  </si>
+  <si>
+    <t>O010</t>
+  </si>
+  <si>
+    <t>O011</t>
+  </si>
+  <si>
+    <t>O012</t>
+  </si>
+  <si>
+    <t>O013</t>
+  </si>
+  <si>
+    <t>O014</t>
+  </si>
+  <si>
+    <t>O015</t>
+  </si>
+  <si>
+    <t>O016</t>
+  </si>
+  <si>
+    <t>O017</t>
+  </si>
+  <si>
+    <t>O018</t>
+  </si>
+  <si>
+    <t>O019</t>
+  </si>
+  <si>
+    <t>O020</t>
+  </si>
+  <si>
+    <t>O021</t>
+  </si>
+  <si>
+    <t>O022</t>
+  </si>
+  <si>
+    <t>O023</t>
+  </si>
+  <si>
+    <t>O024</t>
+  </si>
+  <si>
+    <t>O025</t>
+  </si>
+  <si>
+    <t>O026</t>
+  </si>
+  <si>
+    <t>O027</t>
+  </si>
+  <si>
+    <t>O028</t>
+  </si>
+  <si>
+    <t>O029</t>
+  </si>
+  <si>
+    <t>O030</t>
   </si>
 </sst>
 </file>
@@ -1863,10 +1932,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4758,7 +4830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAA69F5-94F9-47FF-A74B-63587A3E7F03}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -5338,10 +5410,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556687F-AEF6-44CA-821F-9194D0B7E048}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5399,307 +5471,1143 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>45463</v>
       </c>
-      <c r="D2">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3">
+        <v>0.32291666699999999</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>9.25</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.74</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>11.99</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1004</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>45463</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.34375</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>5.75</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.46</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>1.5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>7.71</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>45463</v>
       </c>
-      <c r="D4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3">
+        <v>0.35416666699999999</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>3.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>4.28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1006</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>45463</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.375</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>22.74</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>1.82</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>28.56</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1003</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>45463</v>
       </c>
-      <c r="D6">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3">
+        <v>0.38541666699999999</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>7.5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0.6</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1.25</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>9.35</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1007</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>45463</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.4375</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>16.989999999999998</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>1.36</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>18.350000000000001</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1005</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>45463</v>
       </c>
-      <c r="D8">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3">
+        <v>0.48958333300000001</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>7.74</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.62</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>9.36</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>45463</v>
       </c>
-      <c r="D9">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="3">
+        <v>0.59722222199999997</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>18.989999999999998</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>1.52</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>23.51</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.61111111100000004</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11.13</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.63888888899999996</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17.27</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.65277777800000003</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>21.59</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.68055555599999995</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10.75</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13.86</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.69444444400000005</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.70833333300000001</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13.35</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.72222222199999997</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.73611111100000004</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G19" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12.95</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9.85</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11.89</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.76388888899999996</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7.37</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.77777777800000003</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="3">
+        <v>17.25</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18.63</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.79166666699999999</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.80555555599999995</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10.54</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.81944444400000005</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G25" s="3">
+        <v>20</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.84722222199999997</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.86111111100000004</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G28" s="3">
+        <v>12.85</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>15.88</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" s="3">
+        <v>9</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>11.22</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J30" s="3">
+        <v>8.42</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.90277777800000003</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G31" s="3">
+        <v>13.75</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-data.xlsx
+++ b/data/sample-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\roqore\artisan-coffee-co\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E6ECA4-2693-41CE-B6AB-4E99ED9C8302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7C51E-92BF-48D8-8768-8D196F4DD916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{432A8DC7-3C39-436D-BC34-D70F3C1732F6}"/>
   </bookViews>
@@ -1932,13 +1932,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5413,14 +5418,14 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
@@ -5439,7 +5444,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>308</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5477,8 +5482,8 @@
       <c r="B2" s="3">
         <v>1001</v>
       </c>
-      <c r="C2" s="3">
-        <v>45463</v>
+      <c r="C2" s="5">
+        <v>45837</v>
       </c>
       <c r="D2" s="3">
         <v>0.32291666699999999</v>
@@ -5515,8 +5520,8 @@
       <c r="B3" s="3">
         <v>1004</v>
       </c>
-      <c r="C3" s="3">
-        <v>45463</v>
+      <c r="C3" s="5">
+        <v>45837</v>
       </c>
       <c r="D3" s="3">
         <v>0.34375</v>
@@ -5553,8 +5558,8 @@
       <c r="B4" s="3">
         <v>1002</v>
       </c>
-      <c r="C4" s="3">
-        <v>45463</v>
+      <c r="C4" s="5">
+        <v>45837</v>
       </c>
       <c r="D4" s="3">
         <v>0.35416666699999999</v>
@@ -5591,8 +5596,8 @@
       <c r="B5" s="3">
         <v>1006</v>
       </c>
-      <c r="C5" s="3">
-        <v>45463</v>
+      <c r="C5" s="5">
+        <v>45837</v>
       </c>
       <c r="D5" s="3">
         <v>0.375</v>
@@ -5629,8 +5634,8 @@
       <c r="B6" s="3">
         <v>1003</v>
       </c>
-      <c r="C6" s="3">
-        <v>45463</v>
+      <c r="C6" s="5">
+        <v>45837</v>
       </c>
       <c r="D6" s="3">
         <v>0.38541666699999999</v>
@@ -5667,8 +5672,8 @@
       <c r="B7" s="3">
         <v>1007</v>
       </c>
-      <c r="C7" s="3">
-        <v>45463</v>
+      <c r="C7" s="5">
+        <v>45837</v>
       </c>
       <c r="D7" s="3">
         <v>0.4375</v>
@@ -5705,8 +5710,8 @@
       <c r="B8" s="3">
         <v>1005</v>
       </c>
-      <c r="C8" s="3">
-        <v>45463</v>
+      <c r="C8" s="5">
+        <v>45837</v>
       </c>
       <c r="D8" s="3">
         <v>0.48958333300000001</v>
@@ -5743,8 +5748,8 @@
       <c r="B9" s="3">
         <v>1001</v>
       </c>
-      <c r="C9" s="3">
-        <v>45463</v>
+      <c r="C9" s="5">
+        <v>45837</v>
       </c>
       <c r="D9" s="3">
         <v>0.59722222199999997</v>
@@ -5781,8 +5786,8 @@
       <c r="B10" s="3">
         <v>1002</v>
       </c>
-      <c r="C10" s="3">
-        <v>45463</v>
+      <c r="C10" s="5">
+        <v>45837</v>
       </c>
       <c r="D10" s="3">
         <v>0.61111111100000004</v>
@@ -5819,8 +5824,8 @@
       <c r="B11" s="3">
         <v>1006</v>
       </c>
-      <c r="C11" s="3">
-        <v>45463</v>
+      <c r="C11" s="5">
+        <v>45837</v>
       </c>
       <c r="D11" s="3">
         <v>0.625</v>
@@ -5857,8 +5862,8 @@
       <c r="B12" s="3">
         <v>1007</v>
       </c>
-      <c r="C12" s="3">
-        <v>45463</v>
+      <c r="C12" s="5">
+        <v>45838</v>
       </c>
       <c r="D12" s="3">
         <v>0.63888888899999996</v>
@@ -5895,8 +5900,8 @@
       <c r="B13" s="3">
         <v>1003</v>
       </c>
-      <c r="C13" s="3">
-        <v>45463</v>
+      <c r="C13" s="5">
+        <v>45838</v>
       </c>
       <c r="D13" s="3">
         <v>0.65277777800000003</v>
@@ -5933,8 +5938,8 @@
       <c r="B14" s="3">
         <v>1004</v>
       </c>
-      <c r="C14" s="3">
-        <v>45463</v>
+      <c r="C14" s="5">
+        <v>45838</v>
       </c>
       <c r="D14" s="3">
         <v>0.66666666699999999</v>
@@ -5971,8 +5976,8 @@
       <c r="B15" s="3">
         <v>1005</v>
       </c>
-      <c r="C15" s="3">
-        <v>45463</v>
+      <c r="C15" s="5">
+        <v>45838</v>
       </c>
       <c r="D15" s="3">
         <v>0.68055555599999995</v>
@@ -6009,8 +6014,8 @@
       <c r="B16" s="3">
         <v>1001</v>
       </c>
-      <c r="C16" s="3">
-        <v>45463</v>
+      <c r="C16" s="5">
+        <v>45838</v>
       </c>
       <c r="D16" s="3">
         <v>0.69444444400000005</v>
@@ -6047,8 +6052,8 @@
       <c r="B17" s="3">
         <v>1002</v>
       </c>
-      <c r="C17" s="3">
-        <v>45463</v>
+      <c r="C17" s="5">
+        <v>45838</v>
       </c>
       <c r="D17" s="3">
         <v>0.70833333300000001</v>
@@ -6085,8 +6090,8 @@
       <c r="B18" s="3">
         <v>1003</v>
       </c>
-      <c r="C18" s="3">
-        <v>45463</v>
+      <c r="C18" s="5">
+        <v>45838</v>
       </c>
       <c r="D18" s="3">
         <v>0.72222222199999997</v>
@@ -6123,8 +6128,8 @@
       <c r="B19" s="3">
         <v>1006</v>
       </c>
-      <c r="C19" s="3">
-        <v>45463</v>
+      <c r="C19" s="5">
+        <v>45838</v>
       </c>
       <c r="D19" s="3">
         <v>0.73611111100000004</v>
@@ -6161,8 +6166,8 @@
       <c r="B20" s="3">
         <v>1004</v>
       </c>
-      <c r="C20" s="3">
-        <v>45463</v>
+      <c r="C20" s="5">
+        <v>45838</v>
       </c>
       <c r="D20" s="3">
         <v>0.75</v>
@@ -6199,8 +6204,8 @@
       <c r="B21" s="3">
         <v>1007</v>
       </c>
-      <c r="C21" s="3">
-        <v>45463</v>
+      <c r="C21" s="5">
+        <v>45838</v>
       </c>
       <c r="D21" s="3">
         <v>0.76388888899999996</v>
@@ -6237,8 +6242,8 @@
       <c r="B22" s="3">
         <v>1001</v>
       </c>
-      <c r="C22" s="3">
-        <v>45463</v>
+      <c r="C22" s="5">
+        <v>45838</v>
       </c>
       <c r="D22" s="3">
         <v>0.77777777800000003</v>
@@ -6275,8 +6280,8 @@
       <c r="B23" s="3">
         <v>1005</v>
       </c>
-      <c r="C23" s="3">
-        <v>45463</v>
+      <c r="C23" s="5">
+        <v>45838</v>
       </c>
       <c r="D23" s="3">
         <v>0.79166666699999999</v>
@@ -6313,8 +6318,8 @@
       <c r="B24" s="3">
         <v>1002</v>
       </c>
-      <c r="C24" s="3">
-        <v>45463</v>
+      <c r="C24" s="5">
+        <v>45839</v>
       </c>
       <c r="D24" s="3">
         <v>0.80555555599999995</v>
@@ -6351,8 +6356,8 @@
       <c r="B25" s="3">
         <v>1006</v>
       </c>
-      <c r="C25" s="3">
-        <v>45463</v>
+      <c r="C25" s="5">
+        <v>45839</v>
       </c>
       <c r="D25" s="3">
         <v>0.81944444400000005</v>
@@ -6389,8 +6394,8 @@
       <c r="B26" s="3">
         <v>1003</v>
       </c>
-      <c r="C26" s="3">
-        <v>45463</v>
+      <c r="C26" s="5">
+        <v>45839</v>
       </c>
       <c r="D26" s="3">
         <v>0.83333333300000001</v>
@@ -6427,8 +6432,8 @@
       <c r="B27" s="3">
         <v>1007</v>
       </c>
-      <c r="C27" s="3">
-        <v>45463</v>
+      <c r="C27" s="5">
+        <v>45839</v>
       </c>
       <c r="D27" s="3">
         <v>0.84722222199999997</v>
@@ -6465,8 +6470,8 @@
       <c r="B28" s="3">
         <v>1004</v>
       </c>
-      <c r="C28" s="3">
-        <v>45463</v>
+      <c r="C28" s="5">
+        <v>45839</v>
       </c>
       <c r="D28" s="3">
         <v>0.86111111100000004</v>
@@ -6503,8 +6508,8 @@
       <c r="B29" s="3">
         <v>1002</v>
       </c>
-      <c r="C29" s="3">
-        <v>45463</v>
+      <c r="C29" s="5">
+        <v>45839</v>
       </c>
       <c r="D29" s="3">
         <v>0.875</v>
@@ -6541,8 +6546,8 @@
       <c r="B30" s="3">
         <v>1005</v>
       </c>
-      <c r="C30" s="3">
-        <v>45463</v>
+      <c r="C30" s="5">
+        <v>45839</v>
       </c>
       <c r="D30" s="3">
         <v>0.88888888899999996</v>
@@ -6579,8 +6584,8 @@
       <c r="B31" s="3">
         <v>1006</v>
       </c>
-      <c r="C31" s="3">
-        <v>45463</v>
+      <c r="C31" s="5">
+        <v>45839</v>
       </c>
       <c r="D31" s="3">
         <v>0.90277777800000003</v>

--- a/data/sample-data.xlsx
+++ b/data/sample-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\roqore\artisan-coffee-co\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\artisan-coffee-co\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E6ECA4-2693-41CE-B6AB-4E99ED9C8302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347BD6D9-9297-4453-9B48-0C03B921857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{432A8DC7-3C39-436D-BC34-D70F3C1732F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{432A8DC7-3C39-436D-BC34-D70F3C1732F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="554">
   <si>
     <t>customer_id</t>
   </si>
@@ -1889,6 +1889,9 @@
   </si>
   <si>
     <t>O030</t>
+  </si>
+  <si>
+    <t>B009</t>
   </si>
 </sst>
 </file>
@@ -2259,23 +2262,23 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2640,21 +2643,21 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>384</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>400</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>406</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>416</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>421</v>
       </c>
@@ -2891,20 +2894,20 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>45463</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>45462</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45461</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45460</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45459</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45458</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45457</v>
       </c>
@@ -3149,19 +3152,19 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>449</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>460</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>469</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>472</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>476</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -3382,21 +3385,21 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>484</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>494</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>498</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>501</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>504</v>
       </c>
@@ -3569,13 +3572,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -3591,22 +3594,22 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>514</v>
       </c>
@@ -3614,22 +3617,22 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>519</v>
       </c>
@@ -3637,22 +3640,22 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>524</v>
       </c>
@@ -3660,17 +3663,17 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>528</v>
       </c>
@@ -3682,30 +3685,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144B81C5-B5B5-4682-AC44-72D3F4DA0B04}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -4071,6 +4074,47 @@
         <v>118</v>
       </c>
       <c r="M9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>45337</v>
+      </c>
+      <c r="J10">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10">
         <v>12.5</v>
       </c>
     </row>
@@ -4087,20 +4131,20 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -4129,7 +4173,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -4158,7 +4202,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -4187,7 +4231,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -4216,7 +4260,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -4245,7 +4289,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -4274,7 +4318,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -4303,7 +4347,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -4332,7 +4376,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -4374,21 +4418,21 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -4423,7 +4467,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -4458,7 +4502,7 @@
         <v>8901234567001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -4493,7 +4537,7 @@
         <v>8901234567002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -4528,7 +4572,7 @@
         <v>8901234567003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -4563,7 +4607,7 @@
         <v>8901234567004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -4598,7 +4642,7 @@
         <v>8901234567005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>209</v>
       </c>
@@ -4631,7 +4675,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -4664,7 +4708,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>218</v>
       </c>
@@ -4697,7 +4741,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -4730,7 +4774,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -4763,7 +4807,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -4792,7 +4836,7 @@
         <v>8901234567011</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -4834,20 +4878,20 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>236</v>
       </c>
@@ -4876,7 +4920,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -4905,7 +4949,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -4934,7 +4978,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -4963,7 +5007,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -4992,7 +5036,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>253</v>
       </c>
@@ -5021,7 +5065,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -5050,7 +5094,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -5079,7 +5123,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -5108,7 +5152,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>262</v>
       </c>
@@ -5137,7 +5181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>264</v>
       </c>
@@ -5179,20 +5223,20 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>266</v>
       </c>
@@ -5221,7 +5265,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>272</v>
       </c>
@@ -5250,7 +5294,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -5279,7 +5323,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -5308,7 +5352,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -5337,7 +5381,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -5366,7 +5410,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -5412,27 +5456,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556687F-AEF6-44CA-821F-9194D0B7E048}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -5470,7 +5514,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>317</v>
       </c>
@@ -5508,7 +5552,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>321</v>
       </c>
@@ -5546,7 +5590,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>323</v>
       </c>
@@ -5584,7 +5628,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>325</v>
       </c>
@@ -5622,7 +5666,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>326</v>
       </c>
@@ -5660,7 +5704,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>328</v>
       </c>
@@ -5698,7 +5742,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>331</v>
       </c>
@@ -5736,7 +5780,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>332</v>
       </c>
@@ -5774,7 +5818,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>530</v>
       </c>
@@ -5812,7 +5856,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>532</v>
       </c>
@@ -5850,7 +5894,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>533</v>
       </c>
@@ -5888,7 +5932,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>534</v>
       </c>
@@ -5926,7 +5970,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>535</v>
       </c>
@@ -5964,7 +6008,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>536</v>
       </c>
@@ -6002,7 +6046,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>537</v>
       </c>
@@ -6040,7 +6084,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>538</v>
       </c>
@@ -6078,7 +6122,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>539</v>
       </c>
@@ -6116,7 +6160,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>540</v>
       </c>
@@ -6154,7 +6198,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>541</v>
       </c>
@@ -6192,7 +6236,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>542</v>
       </c>
@@ -6230,7 +6274,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>543</v>
       </c>
@@ -6268,7 +6312,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>544</v>
       </c>
@@ -6306,7 +6350,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>545</v>
       </c>
@@ -6344,7 +6388,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>546</v>
       </c>
@@ -6382,7 +6426,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>547</v>
       </c>
@@ -6420,7 +6464,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>548</v>
       </c>
@@ -6458,7 +6502,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>549</v>
       </c>
@@ -6496,7 +6540,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>550</v>
       </c>
@@ -6534,7 +6578,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>551</v>
       </c>
@@ -6572,7 +6616,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>552</v>
       </c>
@@ -6623,18 +6667,18 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>333</v>
       </c>
@@ -6657,7 +6701,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>338</v>
       </c>
@@ -6680,7 +6724,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>340</v>
       </c>
@@ -6703,7 +6747,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>341</v>
       </c>
@@ -6726,7 +6770,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>343</v>
       </c>
@@ -6749,7 +6793,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>345</v>
       </c>
@@ -6772,7 +6816,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>346</v>
       </c>
@@ -6795,7 +6839,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -6818,7 +6862,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>348</v>
       </c>
@@ -6841,7 +6885,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>350</v>
       </c>
@@ -6864,7 +6908,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>351</v>
       </c>
@@ -6887,7 +6931,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>352</v>
       </c>
@@ -6910,7 +6954,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>354</v>
       </c>
@@ -6933,7 +6977,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -6969,21 +7013,21 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
@@ -7015,7 +7059,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -7047,7 +7091,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>368</v>
       </c>
@@ -7079,7 +7123,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -7111,7 +7155,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>376</v>
       </c>
@@ -7143,7 +7187,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>380</v>
       </c>
